--- a/biology/Médecine/Processus_sphénoïdal_de_l'os_palatin/Processus_sphénoïdal_de_l'os_palatin.xlsx
+++ b/biology/Médecine/Processus_sphénoïdal_de_l'os_palatin/Processus_sphénoïdal_de_l'os_palatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_sph%C3%A9no%C3%AFdal_de_l%27os_palatin</t>
+          <t>Processus_sphénoïdal_de_l'os_palatin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le processus sphénoïdal de l'os palatin est une plaque osseuse mince situé à l’arrière du bord supérieur de la lame perpendiculaire de l'os palatin. Il est dirigé vers le haut et vers l'intérieur.
 Il est séparé du processus orbitaire de l'os palatin par l'incisure sphéno-palatine. Parfois les deux processus sont unis au dessus de l'échancrure formant ainsi un foramen ou plusieurs foramens.
